--- a/test_data/validLogin.xlsx
+++ b/test_data/validLogin.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Test Automation\Kalemon\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9458D191-FFA9-4369-AD47-9D33BE941BF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33540ADA-E092-4250-B982-D09DEA7EC2EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Phone_Number</t>
   </si>
@@ -33,14 +33,17 @@
     <t>Password</t>
   </si>
   <si>
-    <t>Kalemon123@</t>
+    <t>790000023</t>
+  </si>
+  <si>
+    <t>Kalemon1234@</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -49,10 +52,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.8000000000000007"/>
-      <color theme="1"/>
-      <name val="JetBrains Mono"/>
-      <family val="3"/>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -72,19 +77,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -366,16 +376,16 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.88671875" customWidth="1"/>
     <col min="2" max="2" width="20.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -383,15 +393,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>790000023</v>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
+      <c r="B2" s="3" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{324D198B-DAE9-45A2-8F64-8E8B4226F5B3}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>